--- a/867Predictive Modeling/A2/A2.xlsx
+++ b/867Predictive Modeling/A2/A2.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/841Ops and Supply Chain Analytics/A2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/867Predictive Modeling/A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="11_4A64C48CE5F76FFC05FC9890E22D62B1B038C7C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C159D7F-631A-1D41-B22F-CAD81FE39ED4}"/>
+  <xr:revisionPtr revIDLastSave="571" documentId="11_4A64C48CE5F76FFC05FC9890E22D62B1B038C7C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3B6DBA5-3CC9-8444-BF51-2357EFACD95F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
     <sheet name="Q2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,56 +34,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+  <si>
+    <t>Number of Employees</t>
+  </si>
+  <si>
+    <t>Hours per Day</t>
+  </si>
+  <si>
+    <t>Clerk</t>
+  </si>
+  <si>
+    <t>Residential Review (&lt;$1K)</t>
+  </si>
+  <si>
+    <t>Residential Review (&gt;$1K)</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
   <si>
     <t>Residential</t>
   </si>
   <si>
-    <t>Clerk</t>
-  </si>
-  <si>
-    <t>Residential Review (&lt;$1K)</t>
-  </si>
-  <si>
-    <t>Residential Review (&gt;$1K)</t>
+    <t>Capacity (Applications/day) Capacity = (Number of Emplyees/Hours per day*60(for the hour)) / Processing Time (min)</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Flow Rate</t>
   </si>
   <si>
     <t>Commercial Applications</t>
   </si>
   <si>
-    <t>Electrician</t>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>Number of Employees</t>
+    <t>Rate of rejection</t>
+  </si>
+  <si>
+    <t>Accepted Applications</t>
+  </si>
+  <si>
+    <t>Bottleneck</t>
   </si>
   <si>
     <t>Application Processing Time (minutes)</t>
   </si>
   <si>
-    <t>Hours per Day</t>
-  </si>
-  <si>
-    <t>Rate of rejection</t>
-  </si>
-  <si>
-    <t>Capacity (Applications/day) Capacity = (Number of Emplyees/Hours per day*60(for the hour)) / Processing Time (min)</t>
-  </si>
-  <si>
-    <t>Bottleneck</t>
-  </si>
-  <si>
-    <t>Applications</t>
-  </si>
-  <si>
-    <t>Flow Rate</t>
-  </si>
-  <si>
-    <t>Accepted Applications</t>
-  </si>
-  <si>
     <t>Utilization = Flow Rate of Electricians (Before Rejection) / Electrician Capacity</t>
   </si>
   <si>
@@ -97,6 +94,24 @@
   </si>
   <si>
     <t>Machining Center</t>
+  </si>
+  <si>
+    <t>Hubs per Hour</t>
+  </si>
+  <si>
+    <t>Center 1</t>
+  </si>
+  <si>
+    <t>Center 2</t>
+  </si>
+  <si>
+    <t>Maintenance Time (Hours)</t>
+  </si>
+  <si>
+    <t>Finishing</t>
+  </si>
+  <si>
+    <t>Packaging</t>
   </si>
   <si>
     <t>Unit
@@ -105,28 +120,10 @@
 (minutes)</t>
   </si>
   <si>
-    <t>Hubs per Hour</t>
-  </si>
-  <si>
-    <t>Maintenance Time (Hours)</t>
-  </si>
-  <si>
-    <t>Hubs per Batch (before maintenance)</t>
-  </si>
-  <si>
-    <t>Center 1</t>
-  </si>
-  <si>
-    <t>Center 2</t>
-  </si>
-  <si>
-    <t>Finishing</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
     <t>This strategy ensures that while one center is undergoing maintenance for 30 minutes, the other continues to produce hubs, maintaining a balanced workflow and minimizing inventory levels.</t>
+  </si>
+  <si>
+    <t>Maintanance Time</t>
   </si>
   <si>
     <t>Units Processed</t>
@@ -144,26 +141,23 @@
 (minutes)</t>
   </si>
   <si>
-    <t>Total Processing Time</t>
-  </si>
-  <si>
-    <t>Maintanance Time</t>
-  </si>
-  <si>
-    <t>Through Rate</t>
-  </si>
-  <si>
     <t>Unit Processed = processing time puer unit/ Total Maintanance Time</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Processed = </t>
+  </si>
+  <si>
+    <t>Capacity per Hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -306,7 +306,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,6 +332,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,10 +351,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -376,16 +387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -408,8 +419,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9321800" y="4813300"/>
-          <a:ext cx="5435600" cy="3238500"/>
+          <a:off x="6807200" y="6553200"/>
+          <a:ext cx="5435600" cy="4254500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,13 +438,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -759,38 +770,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -799,9 +810,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -822,9 +833,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -845,9 +856,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5">
         <v>8</v>
@@ -868,9 +879,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6">
         <v>0.1</v>
@@ -891,81 +902,81 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <f>(((B3*B5*60)/B4)*1)</f>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14">
+        <f>(B3*B5*(60/B4))</f>
         <v>240</v>
       </c>
-      <c r="C7" s="5">
-        <f>(((C3*C5*60)/C4)*1)</f>
+      <c r="C7" s="14">
+        <f>(C3*C5*(60/C4))</f>
         <v>192</v>
       </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:G7" si="0">(((D3*D5*60)/D4)*1)</f>
+      <c r="D7" s="14">
+        <f>(D3*D5*(60/D4))</f>
         <v>160</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="14">
+        <f t="shared" ref="E7:F7" si="0">(E3*E5*(60/E4))</f>
+        <v>53.333333333333329</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" si="0"/>
+      <c r="G7" s="14">
+        <f>(G3*G5*(60/G4))</f>
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="12"/>
-      <c r="C11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
@@ -974,9 +985,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" ref="B13:G13" si="1">B7</f>
@@ -992,7 +1003,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>53.333333333333336</v>
+        <v>53.333333333333329</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
@@ -1003,77 +1014,77 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.1">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>"Our solution suggests there is a bottleneck for the whole process. Consequently, the firm’s capacity is "&amp;ROUNDUP(MIN(B7:G7),0) &amp;" contracts per day."</f>
         <v>Our solution suggests there is a bottleneck for the whole process. Consequently, the firm’s capacity is 54 contracts per day.</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14">
+        <v>9</v>
+      </c>
+      <c r="B17" s="13">
         <v>200</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="12"/>
-      <c r="C19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -1082,21 +1093,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="5">
         <f>$B$17</f>
         <v>200</v>
       </c>
       <c r="C21" s="5">
-        <f>$B$21*0.36</f>
-        <v>72</v>
+        <f>($B$22*0.6)*0.6</f>
+        <v>64.8</v>
       </c>
       <c r="D21" s="5">
-        <f>$B$21*0.24</f>
-        <v>48</v>
+        <f>($B$22*0.6)*0.4</f>
+        <v>43.2</v>
       </c>
       <c r="E21" s="5">
         <f>$B$21*0.4</f>
@@ -1104,16 +1115,16 @@
       </c>
       <c r="F21" s="5">
         <f>SUM(C22:E22)</f>
-        <v>124.80000000000001</v>
+        <v>119.52000000000001</v>
       </c>
       <c r="G21" s="5">
         <f>F22</f>
-        <v>106.08000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>101.59200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="5">
         <f>B21-(B21*B6)</f>
@@ -1121,11 +1132,11 @@
       </c>
       <c r="C22" s="5">
         <f>C21-(C21*C6)</f>
-        <v>28.800000000000004</v>
+        <v>25.92</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" ref="D22:G22" si="2">D21-(D21*D6)</f>
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
@@ -1133,42 +1144,42 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="2"/>
-        <v>106.08000000000001</v>
+        <v>101.59200000000001</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>100.77600000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>96.512400000000014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="7">
-        <f>F21/F13</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="B25" s="24">
+        <f>F22/F13</f>
+        <v>0.84660000000000013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.1">
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f>"Utilization is based on how much work the electricians are tasked to handle relative to their capacity. In this case, the utilization of electrician is "&amp;B25</f>
-        <v>Utilization is based on how much work the electricians are tasked to handle relative to their capacity. In this case, the utilization of electrician is 1.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.95">
+        <v>Utilization is based on how much work the electricians are tasked to handle relative to their capacity. In this case, the utilization of electrician is 0.8466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -1189,142 +1200,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7720D632-6242-3A4B-A7BD-51C3343CB53F}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="63.95">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f>60/B2</f>
         <v>12</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0.5</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <f>C2*D2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>25</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>60/B3</f>
         <v>12</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <f>C3*D3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <f>60/B4</f>
+      <c r="C4" s="10">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="15">
+        <f>C4/B4</f>
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
-        <f>60/B5</f>
+      <c r="C5" s="10">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15">
+        <f>C5/B5</f>
         <v>30</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>"Each machining center should produce a batch of "&amp;E2&amp;" hubs before stopping for maintenance."</f>
         <v>Each machining center should produce a batch of 6 hubs before stopping for maintenance.</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="63.95">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="5">
         <v>10</v>
@@ -1336,118 +1346,49 @@
         <f>C15*(1-0.4)</f>
         <v>3</v>
       </c>
-      <c r="E15" s="11">
-        <f>D15*(B15)</f>
+      <c r="E15" s="10">
         <v>30</v>
       </c>
-      <c r="F15" s="11">
-        <v>30</v>
-      </c>
-      <c r="G15" s="11">
-        <f>E15+F15</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="16">
-        <f>F16/D16</f>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14">
+        <f>E16/D16</f>
         <v>40</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="18">
         <v>5</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="18">
         <f>C16+1</f>
         <v>6</v>
       </c>
-      <c r="E16" s="16">
-        <f>B16*D16</f>
-        <v>240</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="E16" s="18">
         <f>4*60</f>
         <v>240</v>
       </c>
-      <c r="G16" s="17">
-        <f>E16+F16</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5">
-        <f>SUM(B15:B16)</f>
-        <v>50</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
-        <f>C17</f>
-        <v>4</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" ref="E16:E18" si="0">D17*(B17)</f>
-        <v>200</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <f>E17+F17</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5">
-        <f>B17</f>
-        <v>50</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <f>C18</f>
-        <v>2</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <f>E18+F18</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="F16" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5">
         <f>B16</f>
         <v>40</v>
       </c>
-      <c r="H22">
-        <f>6*12</f>
-        <v>72</v>
-      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
